--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -1481,10 +1481,10 @@
         <v>1.85</v>
       </c>
       <c r="W7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y7" t="n">
         <v>1.33</v>
@@ -1588,16 +1588,16 @@
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
         <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1606,44 +1606,44 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T8" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1655,16 +1655,16 @@
         <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>7</v>
       </c>
       <c r="AK8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
@@ -1682,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -1889,29 +1889,29 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y10" t="n">
         <v>1.44</v>
@@ -2027,32 +2027,32 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y11" t="n">
         <v>1.33</v>
@@ -2150,50 +2150,50 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Y12" t="n">
         <v>1.4</v>
@@ -2202,10 +2202,10 @@
         <v>2.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AC12" t="n">
         <v>11</v>
@@ -2214,7 +2214,7 @@
         <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2226,37 +2226,37 @@
         <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>6.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN12" t="n">
         <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>26</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13">
@@ -2859,22 +2859,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K17" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L17" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2886,15 +2886,15 @@
         <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T17" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2911,16 +2911,16 @@
         <v>3.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE17" t="n">
         <v>10</v>
@@ -2929,10 +2929,10 @@
         <v>35</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
         <v>9.75</v>
@@ -2947,10 +2947,10 @@
         <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
         <v>9.75</v>
@@ -2959,13 +2959,13 @@
         <v>30</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS17" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="K18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L18" t="n">
         <v>2.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.35</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3040,28 +3040,28 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X18" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Y18" t="n">
         <v>1.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AB18" t="n">
         <v>2.35</v>
       </c>
       <c r="AC18" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>12.5</v>
@@ -3070,25 +3070,25 @@
         <v>55</v>
       </c>
       <c r="AG18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
         <v>9</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AK18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL18" t="n">
         <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AN18" t="n">
         <v>10.75</v>
@@ -3097,10 +3097,10 @@
         <v>8.25</v>
       </c>
       <c r="AP18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AR18" t="n">
         <v>19</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -722,10 +722,10 @@
         <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.19</v>
+        <v>2.22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
@@ -734,10 +734,10 @@
         <v>1.36</v>
       </c>
       <c r="U2" t="n">
-        <v>5.12</v>
+        <v>5.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
@@ -1002,10 +1002,10 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1014,34 +1014,34 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U4" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Y4" t="n">
         <v>1.62</v>
@@ -1050,13 +1050,13 @@
         <v>2.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
@@ -1068,13 +1068,13 @@
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ4" t="n">
         <v>6</v>
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>26</v>
@@ -1181,10 +1181,10 @@
         <v>1.4</v>
       </c>
       <c r="U5" t="n">
-        <v>4.62</v>
+        <v>4.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
         <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>1.95</v>
@@ -1306,10 +1306,10 @@
         <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1318,22 +1318,22 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W6" t="n">
         <v>3.4</v>
@@ -1342,16 +1342,16 @@
         <v>1.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC6" t="n">
         <v>6</v>
@@ -1369,10 +1369,10 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
@@ -1384,16 +1384,16 @@
         <v>81</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
         <v>41</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
         <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1606,65 +1606,65 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Z8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>7</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
@@ -1682,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="AQ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR8" t="n">
         <v>29</v>
       </c>
-      <c r="AR8" t="n">
-        <v>34</v>
-      </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -1723,19 +1723,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
@@ -1747,36 +1747,36 @@
         <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.53</v>
       </c>
-      <c r="T9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Y9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AA9" t="n">
         <v>1.67</v>
@@ -1785,7 +1785,7 @@
         <v>2.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>8.5</v>
@@ -1806,7 +1806,7 @@
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -2027,32 +2027,32 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y11" t="n">
         <v>1.33</v>
@@ -2150,13 +2150,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2165,13 +2165,13 @@
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2185,7 +2185,7 @@
         <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2196,10 +2196,10 @@
         <v>1.29</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA12" t="n">
         <v>1.8</v>
@@ -2208,10 +2208,10 @@
         <v>1.95</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2226,7 +2226,7 @@
         <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>6.5</v>
@@ -2253,7 +2253,7 @@
         <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS12" t="n">
         <v>251</v>
@@ -2450,10 +2450,10 @@
         <v>2.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
@@ -2464,18 +2464,18 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y14" t="n">
         <v>1.36</v>
@@ -2602,8 +2602,12 @@
       <c r="P15" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.05</v>
+      </c>
       <c r="S15" t="n">
         <v>2.35</v>
       </c>
@@ -2619,16 +2623,16 @@
         <v>1.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
@@ -2714,22 +2718,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
@@ -2776,19 +2780,19 @@
         <v>1.73</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE16" t="n">
         <v>12</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>11</v>
       </c>
       <c r="AF16" t="n">
         <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
@@ -2809,16 +2813,16 @@
         <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
         <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR16" t="n">
         <v>41</v>
@@ -2859,28 +2863,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J17" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L17" t="n">
         <v>2.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.92</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.13</v>
@@ -2894,63 +2898,63 @@
         <v>1.42</v>
       </c>
       <c r="T17" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y17" t="n">
         <v>1.25</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AA17" t="n">
         <v>1.36</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AC17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE17" t="n">
         <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
         <v>17.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AK17" t="n">
         <v>10</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>9.75</v>
@@ -2962,7 +2966,7 @@
         <v>17</v>
       </c>
       <c r="AR17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AS17" t="n">
         <v>120</v>
@@ -3000,22 +3004,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H18" t="n">
         <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J18" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="K18" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L18" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3024,62 +3028,62 @@
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T18" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="X18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA18" t="n">
         <v>1.55</v>
       </c>
-      <c r="Y18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AB18" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AC18" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AE18" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
         <v>9</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
         <v>12.5</v>
@@ -3088,22 +3092,22 @@
         <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AN18" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AR18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AS18" t="n">
         <v>250</v>
@@ -3141,28 +3145,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -3206,13 +3210,13 @@
         <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>26</v>
@@ -3233,19 +3237,19 @@
         <v>67</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO19" t="n">
         <v>12</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>11</v>
       </c>
       <c r="AP19" t="n">
         <v>29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -856,13 +856,13 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -910,7 +910,7 @@
         <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
@@ -928,19 +928,19 @@
         <v>6</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK3" t="n">
         <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
         <v>8.5</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
@@ -1008,16 +1008,16 @@
         <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1032,16 +1032,16 @@
         <v>1.4</v>
       </c>
       <c r="U4" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Y4" t="n">
         <v>1.62</v>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
@@ -1154,7 +1154,7 @@
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1181,7 +1181,7 @@
         <v>1.4</v>
       </c>
       <c r="U5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="V5" t="n">
         <v>1.19</v>
@@ -1199,13 +1199,13 @@
         <v>2.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>15</v>
@@ -1238,16 +1238,16 @@
         <v>5.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1585,19 +1585,19 @@
         <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1606,65 +1606,65 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK8" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
@@ -1673,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>13</v>
@@ -1685,10 +1685,10 @@
         <v>26</v>
       </c>
       <c r="AR8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -1755,22 +1755,22 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.53</v>
       </c>
       <c r="Y9" t="n">
         <v>1.29</v>
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
         <v>2.7</v>
@@ -1880,38 +1880,38 @@
         <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y10" t="n">
         <v>1.44</v>
@@ -1920,13 +1920,13 @@
         <v>2.63</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>13</v>
@@ -1938,13 +1938,13 @@
         <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>6</v>
@@ -1956,10 +1956,10 @@
         <v>51</v>
       </c>
       <c r="AM10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>10</v>
@@ -1968,13 +1968,13 @@
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
@@ -2153,47 +2153,47 @@
         <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
         <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="X12" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Y12" t="n">
         <v>1.44</v>
@@ -2202,13 +2202,13 @@
         <v>2.63</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
         <v>17</v>
@@ -2223,13 +2223,13 @@
         <v>29</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK12" t="n">
         <v>15</v>
@@ -2238,25 +2238,25 @@
         <v>51</v>
       </c>
       <c r="AM12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AN12" t="n">
         <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>17</v>
       </c>
       <c r="AR12" t="n">
         <v>29</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13">
@@ -2573,28 +2573,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="J15" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2609,24 +2609,24 @@
         <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA15" t="n">
         <v>2.1</v>
@@ -2635,13 +2635,13 @@
         <v>1.67</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
@@ -2653,13 +2653,13 @@
         <v>51</v>
       </c>
       <c r="AI15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>67</v>
@@ -2668,16 +2668,16 @@
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>34</v>
@@ -3007,19 +3007,19 @@
         <v>4.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J18" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="K18" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L18" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3036,10 +3036,10 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="T18" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3059,19 +3059,19 @@
         <v>1.55</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG18" t="n">
         <v>35</v>
@@ -3083,25 +3083,25 @@
         <v>9</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM18" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
         <v>8</v>
       </c>
       <c r="AP18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>11.75</v>
@@ -3145,22 +3145,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.1</v>
@@ -3210,13 +3210,13 @@
         <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
         <v>26</v>
@@ -3237,19 +3237,19 @@
         <v>67</v>
       </c>
       <c r="AM19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
         <v>29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>
@@ -3290,50 +3290,50 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="J20" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L20" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X20" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Y20" t="n">
         <v>1.33</v>
@@ -3342,61 +3342,61 @@
         <v>3.05</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AC20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AD20" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AE20" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="n">
         <v>50</v>
       </c>
       <c r="AI20" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
         <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AO20" t="n">
         <v>8</v>
       </c>
       <c r="AP20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AR20" t="n">
         <v>23</v>
       </c>
       <c r="AS20" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1044,10 +1044,10 @@
         <v>1.11</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA4" t="n">
         <v>2.25</v>
@@ -1071,7 +1071,7 @@
         <v>34</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="n">
         <v>6</v>
@@ -1089,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1139,16 +1139,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
@@ -1208,13 +1208,13 @@
         <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="n">
         <v>34</v>
@@ -1235,7 +1235,7 @@
         <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AN5" t="n">
         <v>10</v>
@@ -1449,7 +1449,7 @@
         <v>2.38</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
         <v>4.33</v>
@@ -1520,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1582,28 +1582,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.3</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1614,10 +1614,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1634,31 +1634,31 @@
         <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG8" t="n">
         <v>17</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>15</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>6.5</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
         <v>26</v>
@@ -1723,16 +1723,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K9" t="n">
         <v>2.5</v>
@@ -1755,22 +1755,22 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.53</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.57</v>
       </c>
       <c r="Y9" t="n">
         <v>1.29</v>
@@ -1794,7 +1794,7 @@
         <v>8.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1803,7 +1803,7 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.5</v>
@@ -1815,7 +1815,7 @@
         <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="n">
         <v>34</v>
@@ -1824,7 +1824,7 @@
         <v>19</v>
       </c>
       <c r="AP9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
         <v>2.7</v>
@@ -1892,26 +1892,26 @@
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y10" t="n">
         <v>1.44</v>
@@ -1920,10 +1920,10 @@
         <v>2.63</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC10" t="n">
         <v>8</v>
@@ -1938,13 +1938,13 @@
         <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
         <v>6</v>
@@ -1956,10 +1956,10 @@
         <v>51</v>
       </c>
       <c r="AM10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
         <v>10</v>
@@ -1974,7 +1974,7 @@
         <v>34</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11">
@@ -2009,65 +2009,65 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
         <v>8</v>
@@ -2082,19 +2082,19 @@
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>17</v>
@@ -2150,10 +2150,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
         <v>2.2</v>
@@ -2165,27 +2165,27 @@
         <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2196,19 +2196,19 @@
         <v>1.22</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>17</v>
@@ -2226,7 +2226,7 @@
         <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ12" t="n">
         <v>6</v>
@@ -2253,10 +2253,10 @@
         <v>19</v>
       </c>
       <c r="AR12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
@@ -2309,10 +2309,10 @@
         <v>2.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2326,7 +2326,7 @@
         <v>2.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2464,10 +2464,10 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2609,18 +2609,18 @@
         <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y15" t="n">
         <v>1.5</v>
@@ -2863,19 +2863,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
         <v>2.47</v>
       </c>
       <c r="J17" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K17" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L17" t="n">
         <v>2.9</v>
@@ -2884,7 +2884,7 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O17" t="n">
         <v>1.13</v>
@@ -2898,7 +2898,7 @@
         <v>1.42</v>
       </c>
       <c r="T17" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2912,10 +2912,10 @@
         <v>1.25</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AB17" t="n">
         <v>2.87</v>
@@ -2924,7 +2924,7 @@
         <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>10</v>
@@ -2939,10 +2939,10 @@
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AK17" t="n">
         <v>10</v>
@@ -2960,7 +2960,7 @@
         <v>9.75</v>
       </c>
       <c r="AP17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ17" t="n">
         <v>17</v>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I18" t="n">
         <v>1.65</v>
@@ -3016,7 +3016,7 @@
         <v>4.45</v>
       </c>
       <c r="K18" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
         <v>2.15</v>
@@ -3025,13 +3025,13 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O18" t="n">
         <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -3050,28 +3050,28 @@
         <v>1.57</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AA18" t="n">
         <v>1.55</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AC18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="n">
         <v>35</v>
@@ -3080,7 +3080,7 @@
         <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AJ18" t="n">
         <v>8.25</v>
@@ -3089,7 +3089,7 @@
         <v>13</v>
       </c>
       <c r="AL18" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
         <v>10</v>
@@ -3098,10 +3098,10 @@
         <v>10</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ18" t="n">
         <v>11.75</v>
@@ -3290,19 +3290,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I20" t="n">
         <v>1.53</v>
       </c>
       <c r="J20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L20" t="n">
         <v>2.05</v>
@@ -3317,7 +3317,7 @@
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -3330,40 +3330,40 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="X20" t="n">
         <v>1.44</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Z20" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AC20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG20" t="n">
         <v>50</v>
       </c>
       <c r="AH20" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="n">
         <v>8.25</v>
@@ -3372,7 +3372,7 @@
         <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL20" t="n">
         <v>65</v>
@@ -3381,7 +3381,7 @@
         <v>7.6</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AO20" t="n">
         <v>8</v>
@@ -3396,7 +3396,7 @@
         <v>23</v>
       </c>
       <c r="AS20" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -871,10 +871,10 @@
         <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="S3" t="n">
         <v>2.7</v>
@@ -1032,7 +1032,7 @@
         <v>1.4</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="V4" t="n">
         <v>1.17</v>
@@ -1461,10 +1461,10 @@
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -1481,10 +1481,10 @@
         <v>1.85</v>
       </c>
       <c r="W7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y7" t="n">
         <v>1.33</v>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
@@ -1614,10 +1614,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1649,13 +1649,13 @@
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
         <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -1744,7 +1744,7 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
         <v>1.17</v>
@@ -1758,19 +1758,19 @@
         <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y9" t="n">
         <v>1.29</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
@@ -1900,10 +1900,10 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -1938,7 +1938,7 @@
         <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>34</v>
@@ -1956,10 +1956,10 @@
         <v>51</v>
       </c>
       <c r="AM10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>10</v>
@@ -1968,13 +1968,13 @@
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
         <v>34</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
@@ -2009,68 +2009,72 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I11" t="n">
         <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L11" t="n">
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.25</v>
       </c>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="n">
-        <v>2.5</v>
-      </c>
       <c r="X11" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AB11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AC11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD11" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>8.5</v>
@@ -2079,25 +2083,25 @@
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN11" t="n">
         <v>29</v>
@@ -2112,10 +2116,10 @@
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2150,10 +2154,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
         <v>2.2</v>
@@ -2162,53 +2166,53 @@
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB12" t="n">
         <v>1.95</v>
       </c>
-      <c r="AB12" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>17</v>
@@ -2217,46 +2221,46 @@
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
         <v>29</v>
       </c>
       <c r="AH12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>6</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
         <v>51</v>
       </c>
       <c r="AM12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN12" t="n">
         <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS12" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13">
@@ -2326,7 +2330,7 @@
         <v>2.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2456,18 +2460,18 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T14" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2748,24 +2752,24 @@
         <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X16" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y16" t="n">
         <v>1.53</v>
@@ -2863,22 +2867,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="J17" t="n">
         <v>2.92</v>
       </c>
       <c r="K17" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L17" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2890,35 +2894,35 @@
         <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X17" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Z17" t="n">
         <v>3.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AC17" t="n">
         <v>15</v>
@@ -2942,22 +2946,22 @@
         <v>9.75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AL17" t="n">
         <v>27</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>32</v>
@@ -3004,7 +3008,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="H18" t="n">
         <v>3.95</v>
@@ -3013,10 +3017,10 @@
         <v>1.65</v>
       </c>
       <c r="J18" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="L18" t="n">
         <v>2.15</v>
@@ -3025,89 +3029,89 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="T18" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="X18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="AC18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH18" t="n">
         <v>35</v>
       </c>
-      <c r="AH18" t="n">
-        <v>32</v>
-      </c>
       <c r="AI18" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
         <v>13</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>11.75</v>
       </c>
       <c r="AR18" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AS18" t="n">
         <v>250</v>
@@ -3148,10 +3152,10 @@
         <v>2.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -3163,10 +3167,10 @@
         <v>3.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -3216,7 +3220,7 @@
         <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>26</v>
@@ -3228,7 +3232,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
@@ -3237,10 +3241,10 @@
         <v>67</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
         <v>11</v>
@@ -3290,34 +3294,34 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="I20" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J20" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L20" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -3333,70 +3337,70 @@
         <v>2.57</v>
       </c>
       <c r="X20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Z20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG20" t="n">
         <v>50</v>
       </c>
       <c r="AH20" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>8.25</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>8</v>
-      </c>
       <c r="AK20" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AN20" t="n">
         <v>7.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP20" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AR20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS20" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -871,10 +871,10 @@
         <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
         <v>2.7</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
@@ -1306,10 +1306,10 @@
         <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1360,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1375,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK6" t="n">
         <v>23</v>
@@ -1469,10 +1469,10 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -1747,24 +1747,24 @@
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>2.5</v>
@@ -1868,22 +1868,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1903,7 +1903,7 @@
         <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -1926,16 +1926,16 @@
         <v>1.95</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
         <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2009,22 +2009,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K11" t="n">
         <v>2.6</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -2041,7 +2041,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
         <v>2.5</v>
@@ -2065,13 +2065,13 @@
         <v>3.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>8.5</v>
@@ -2092,7 +2092,7 @@
         <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
@@ -2104,19 +2104,19 @@
         <v>19</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
         <v>17</v>
       </c>
       <c r="AP11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
@@ -2172,13 +2172,13 @@
         <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
         <v>3.4</v>
@@ -2189,7 +2189,7 @@
         <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2197,7 +2197,7 @@
         <v>3.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y12" t="n">
         <v>1.44</v>
@@ -2221,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
         <v>29</v>
@@ -2230,7 +2230,7 @@
         <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
         <v>6</v>
@@ -2254,7 +2254,7 @@
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR12" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -859,10 +859,10 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -883,10 +883,10 @@
         <v>1.44</v>
       </c>
       <c r="U3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1026,10 +1026,10 @@
         <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="n">
         <v>5.2</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>1.95</v>
@@ -1306,10 +1306,10 @@
         <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1318,22 +1318,22 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="S6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="W6" t="n">
         <v>3.4</v>
@@ -1372,10 +1372,10 @@
         <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
         <v>23</v>
@@ -1384,16 +1384,16 @@
         <v>81</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1440,7 +1440,7 @@
         <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
         <v>3.9</v>
@@ -1449,7 +1449,7 @@
         <v>2.38</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
         <v>4.33</v>
@@ -1475,34 +1475,34 @@
         <v>2.3</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC7" t="n">
         <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>8.5</v>
@@ -1529,7 +1529,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
@@ -1544,7 +1544,7 @@
         <v>29</v>
       </c>
       <c r="AR7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
@@ -1723,90 +1723,90 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>5.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="U9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AB9" t="n">
         <v>2</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>8.5</v>
       </c>
       <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12</v>
       </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -1815,13 +1815,13 @@
         <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>51</v>
@@ -1833,7 +1833,7 @@
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
@@ -2454,24 +2454,24 @@
         <v>2.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T14" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2482,16 +2482,16 @@
         <v>1.33</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -2503,31 +2503,31 @@
         <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
         <v>26</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
         <v>6.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
@@ -2539,7 +2539,7 @@
         <v>17</v>
       </c>
       <c r="AR14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS14" t="n">
         <v>201</v>
@@ -2613,18 +2613,18 @@
         <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y15" t="n">
         <v>1.5</v>
@@ -2687,7 +2687,7 @@
         <v>34</v>
       </c>
       <c r="AS15" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="16">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -3167,10 +3167,10 @@
         <v>3.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -3247,7 +3247,7 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>29</v>
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H20" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="I20" t="n">
         <v>1.52</v>
       </c>
       <c r="J20" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3318,7 +3318,7 @@
         <v>8.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
         <v>3.9</v>
@@ -3329,15 +3329,15 @@
         <v>1.65</v>
       </c>
       <c r="T20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="X20" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Y20" t="n">
         <v>1.33</v>
@@ -3346,25 +3346,25 @@
         <v>3.05</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AC20" t="n">
         <v>16.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH20" t="n">
         <v>50</v>
@@ -3376,31 +3376,31 @@
         <v>8.25</v>
       </c>
       <c r="AK20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP20" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AR20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I2" t="n">
         <v>3.25</v>
@@ -704,7 +704,7 @@
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -716,34 +716,34 @@
         <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U2" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y2" t="n">
         <v>1.67</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
@@ -853,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L3" t="n">
         <v>4.75</v>
@@ -880,7 +880,7 @@
         <v>2.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U3" t="n">
         <v>4.5</v>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
         <v>3.5</v>
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
         <v>3.4</v>
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
@@ -1437,72 +1437,72 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T7" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
         <v>9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>8.5</v>
@@ -1514,13 +1514,13 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1529,10 +1529,10 @@
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
@@ -1541,13 +1541,13 @@
         <v>41</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8">
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
@@ -1723,10 +1723,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>5.75</v>
@@ -1735,16 +1735,16 @@
         <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
@@ -1773,10 +1773,10 @@
         <v>1.44</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AA9" t="n">
         <v>1.73</v>
@@ -1794,7 +1794,7 @@
         <v>8.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -2301,7 +2301,7 @@
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2442,7 +2442,7 @@
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2468,18 +2468,18 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y14" t="n">
         <v>1.4</v>
@@ -2583,7 +2583,7 @@
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="J15" t="n">
         <v>5.5</v>
@@ -2687,7 +2687,7 @@
         <v>34</v>
       </c>
       <c r="AS15" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2752,24 +2752,24 @@
         <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
         <v>1.95</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X16" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y16" t="n">
         <v>1.53</v>
@@ -3149,28 +3149,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="H19" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -3179,10 +3179,10 @@
         <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S19" t="n">
         <v>2.5</v>
@@ -3214,7 +3214,7 @@
         <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>11</v>
@@ -3253,7 +3253,7 @@
         <v>29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
         <v>3.25</v>
@@ -704,7 +704,7 @@
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -722,19 +722,19 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="R2" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="V2" t="n">
         <v>1.15</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
@@ -853,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
         <v>4.75</v>
@@ -880,7 +880,7 @@
         <v>2.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U3" t="n">
         <v>4.5</v>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
         <v>3.5</v>
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
         <v>3.4</v>
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H7" t="n">
         <v>3.9</v>
@@ -1455,16 +1455,16 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -1481,10 +1481,10 @@
         <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="X7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Y7" t="n">
         <v>1.33</v>
@@ -1499,7 +1499,7 @@
         <v>2.05</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
         <v>9</v>
@@ -1541,13 +1541,13 @@
         <v>41</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR7" t="n">
         <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
@@ -1591,19 +1591,19 @@
         <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1614,24 +1614,24 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA8" t="n">
         <v>1.67</v>
@@ -1646,7 +1646,7 @@
         <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF8" t="n">
         <v>21</v>
@@ -1658,7 +1658,7 @@
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>6.5</v>
@@ -1682,13 +1682,13 @@
         <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
         <v>34</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9">
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -1735,7 +1735,7 @@
         <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
@@ -2301,7 +2301,7 @@
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2436,22 +2436,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2468,10 +2468,10 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2482,10 +2482,10 @@
         <v>1.36</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA14" t="n">
         <v>1.75</v>
@@ -2497,16 +2497,16 @@
         <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH14" t="n">
         <v>34</v>
@@ -2515,7 +2515,7 @@
         <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK14" t="n">
         <v>15</v>
@@ -2524,19 +2524,19 @@
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>26</v>
@@ -2583,7 +2583,7 @@
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="J15" t="n">
         <v>5.5</v>
@@ -2613,18 +2613,18 @@
         <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y15" t="n">
         <v>1.5</v>
@@ -2752,10 +2752,10 @@
         <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="n">
         <v>2.4</v>
@@ -2867,22 +2867,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="J17" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L17" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2916,19 +2916,19 @@
         <v>1.24</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AC17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AE17" t="n">
         <v>10</v>
@@ -2937,28 +2937,28 @@
         <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
         <v>9.75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
@@ -2967,13 +2967,13 @@
         <v>32</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AR17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AS17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -3008,22 +3008,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J18" t="n">
-        <v>4.55</v>
+        <v>4.8</v>
       </c>
       <c r="K18" t="n">
         <v>2.35</v>
       </c>
       <c r="L18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3035,7 +3035,7 @@
         <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -3048,37 +3048,37 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="X18" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Y18" t="n">
         <v>1.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AA18" t="n">
         <v>1.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AE18" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG18" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH18" t="n">
         <v>35</v>
@@ -3087,10 +3087,10 @@
         <v>9</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL18" t="n">
         <v>45</v>
@@ -3099,22 +3099,22 @@
         <v>9</v>
       </c>
       <c r="AN18" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO18" t="n">
         <v>8</v>
       </c>
       <c r="AP18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AR18" t="n">
         <v>19.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19">
@@ -3149,28 +3149,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L19" t="n">
         <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -3179,10 +3179,10 @@
         <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S19" t="n">
         <v>2.5</v>
@@ -3211,7 +3211,7 @@
         <v>1.73</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD19" t="n">
         <v>11</v>
@@ -3220,10 +3220,10 @@
         <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
@@ -3241,16 +3241,16 @@
         <v>67</v>
       </c>
       <c r="AM19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO19" t="n">
         <v>12</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ19" t="n">
         <v>29</v>
@@ -3297,65 +3297,65 @@
         <v>5.6</v>
       </c>
       <c r="H20" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P20" t="n">
         <v>4.15</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.9</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="X20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="Z20" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AC20" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE20" t="n">
         <v>17.5</v>
@@ -3364,34 +3364,34 @@
         <v>110</v>
       </c>
       <c r="AG20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>8.25</v>
       </c>
       <c r="AK20" t="n">
         <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AN20" t="n">
         <v>7.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP20" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AQ20" t="n">
         <v>11.25</v>
@@ -3400,7 +3400,7 @@
         <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS20"/>
+  <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -707,7 +707,7 @@
         <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.14</v>
@@ -722,22 +722,22 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.33</v>
+        <v>2.46</v>
       </c>
       <c r="R2" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U2" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -746,16 +746,16 @@
         <v>1.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC2" t="n">
         <v>5.5</v>
@@ -764,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>26</v>
@@ -773,19 +773,19 @@
         <v>29</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM2" t="n">
         <v>6.5</v>
@@ -797,10 +797,10 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -1154,7 +1154,7 @@
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1199,19 +1199,19 @@
         <v>2.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>34</v>
@@ -1220,10 +1220,10 @@
         <v>34</v>
       </c>
       <c r="AH5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
@@ -1238,16 +1238,16 @@
         <v>6</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
         <v>4.75</v>
@@ -1306,40 +1306,40 @@
         <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.3</v>
       </c>
       <c r="Y6" t="n">
         <v>1.4</v>
@@ -1378,19 +1378,19 @@
         <v>9.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>81</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN6" t="n">
         <v>34</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
         <v>81</v>
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
         <v>2.88</v>
@@ -1597,27 +1597,27 @@
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1634,10 +1634,10 @@
         <v>2.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AC8" t="n">
         <v>8.5</v>
@@ -1646,7 +1646,7 @@
         <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>21</v>
@@ -1682,7 +1682,7 @@
         <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
         <v>34</v>
@@ -1741,10 +1741,10 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
@@ -2327,10 +2327,10 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2454,32 +2454,32 @@
         <v>2.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="X14" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Y14" t="n">
         <v>1.36</v>
@@ -2548,7 +2548,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CbSR5Yyg</t>
+          <t>ny7KUfe2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2558,142 +2558,138 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="J15" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="L15" t="n">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="P15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.6</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>4.33</v>
+        <v>1.93</v>
       </c>
       <c r="X15" t="n">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.67</v>
+        <v>2.92</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AD15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AL15" t="n">
         <v>26</v>
       </c>
-      <c r="AE15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>67</v>
-      </c>
       <c r="AM15" t="n">
-        <v>6</v>
+        <v>15.5</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>18.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AR15" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AS15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pCQZ3C65</t>
+          <t>4Cy5x7E8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2703,142 +2699,138 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Al Khor</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Al Ahli Doha</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="I16" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="K16" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="L16" t="n">
-        <v>3.4</v>
+        <v>2.12</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.98</v>
-      </c>
+        <v>4.15</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>4.5</v>
+        <v>2.37</v>
       </c>
       <c r="X16" t="n">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="AG16" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AH16" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AI16" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>11.75</v>
       </c>
       <c r="AR16" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ny7KUfe2</t>
+          <t>OKEg48mC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2848,138 +2840,142 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.37</v>
+        <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.88</v>
+      </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.72</v>
+        <v>1.48</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.65</v>
+        <v>2.25</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.92</v>
+        <v>1.73</v>
       </c>
       <c r="AC17" t="n">
-        <v>16</v>
+        <v>6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AK17" t="n">
         <v>17</v>
       </c>
-      <c r="AH17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AL17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM17" t="n">
         <v>8</v>
       </c>
-      <c r="AK17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AN17" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AR17" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>110</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4Cy5x7E8</t>
+          <t>dnKct4La</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2989,417 +2985,131 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Khor</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Ahli Doha</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="K18" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="X18" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AC18" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AD18" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AE18" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AH18" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AK18" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>9</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP18" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AR18" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AS18" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>OKEg48mC</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>29/01/2025</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Dep. La Coruna</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="n">
-        <v>5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>dnKct4La</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>29/01/2025</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Prachuap</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Buriram</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS20" t="n">
         <v>400</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
@@ -722,10 +722,10 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
@@ -734,10 +734,10 @@
         <v>1.33</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -761,13 +761,13 @@
         <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
         <v>29</v>
@@ -791,10 +791,10 @@
         <v>6.5</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -910,16 +910,16 @@
         <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -928,7 +928,7 @@
         <v>6</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK3" t="n">
         <v>19</v>
@@ -937,7 +937,7 @@
         <v>81</v>
       </c>
       <c r="AM3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN3" t="n">
         <v>17</v>
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
@@ -1050,10 +1050,10 @@
         <v>2.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC4" t="n">
         <v>6.5</v>
@@ -1062,10 +1062,10 @@
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
         <v>34</v>
@@ -1074,28 +1074,28 @@
         <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>26</v>
@@ -1181,10 +1181,10 @@
         <v>1.4</v>
       </c>
       <c r="U5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1318,22 +1318,22 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="R6" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="S6" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W6" t="n">
         <v>3.5</v>
@@ -1348,22 +1348,22 @@
         <v>2.75</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1372,7 +1372,7 @@
         <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
         <v>9.5</v>
@@ -1381,25 +1381,25 @@
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>501</v>
@@ -1582,19 +1582,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
         <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
         <v>3.75</v>
@@ -1614,10 +1614,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1640,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
@@ -1723,87 +1723,87 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
         <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA9" t="n">
         <v>1.67</v>
       </c>
-      <c r="T9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1.73</v>
-      </c>
       <c r="AB9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>8.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>8</v>
@@ -1833,7 +1833,7 @@
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2295,13 +2295,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2310,13 +2310,13 @@
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2353,13 +2353,13 @@
         <v>1.91</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
         <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
@@ -2386,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
@@ -2395,7 +2395,7 @@
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR13" t="n">
         <v>29</v>
@@ -2436,42 +2436,42 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
         <v>1.91</v>
       </c>
       <c r="J14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2482,16 +2482,16 @@
         <v>1.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -2506,13 +2506,13 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>7</v>
@@ -2524,10 +2524,10 @@
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>8.5</v>
@@ -2542,7 +2542,7 @@
         <v>26</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15">
@@ -2577,22 +2577,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="J15" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="K15" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="L15" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
@@ -2601,41 +2601,41 @@
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P15" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="X15" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="AC15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="n">
         <v>18.5</v>
@@ -2644,46 +2644,46 @@
         <v>10</v>
       </c>
       <c r="AF15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM15" t="n">
         <v>17</v>
       </c>
-      <c r="AI15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AN15" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>18</v>
       </c>
       <c r="AS15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2721,7 +2721,7 @@
         <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I16" t="n">
         <v>1.6</v>
@@ -2730,22 +2730,22 @@
         <v>4.8</v>
       </c>
       <c r="K16" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L16" t="n">
         <v>2.12</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -2776,7 +2776,7 @@
         <v>2.15</v>
       </c>
       <c r="AC16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD16" t="n">
         <v>32</v>
@@ -2794,10 +2794,10 @@
         <v>37</v>
       </c>
       <c r="AI16" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK16" t="n">
         <v>14</v>
@@ -2809,7 +2809,7 @@
         <v>8.75</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO16" t="n">
         <v>8</v>
@@ -2818,7 +2818,7 @@
         <v>12.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AR16" t="n">
         <v>20</v>
@@ -2862,10 +2862,10 @@
         <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
@@ -2874,13 +2874,13 @@
         <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -2915,10 +2915,10 @@
         <v>2.25</v>
       </c>
       <c r="AA17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AC17" t="n">
         <v>6.5</v>
@@ -2939,7 +2939,7 @@
         <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>5.5</v>
@@ -2951,13 +2951,13 @@
         <v>67</v>
       </c>
       <c r="AM17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN17" t="n">
         <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
@@ -716,16 +716,16 @@
         <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
@@ -734,16 +734,16 @@
         <v>1.33</v>
       </c>
       <c r="U2" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Y2" t="n">
         <v>1.75</v>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -996,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1723,16 +1723,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.4</v>
@@ -1779,10 +1779,10 @@
         <v>3.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
@@ -1809,7 +1809,7 @@
         <v>8</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -1827,10 +1827,10 @@
         <v>51</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
@@ -2718,22 +2718,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J16" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K16" t="n">
         <v>2.35</v>
       </c>
       <c r="L16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2742,62 +2742,62 @@
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T16" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="X16" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="Y16" t="n">
         <v>1.31</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AB16" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AC16" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD16" t="n">
         <v>32</v>
       </c>
       <c r="AE16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
         <v>90</v>
       </c>
       <c r="AG16" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH16" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="n">
         <v>9</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK16" t="n">
         <v>14</v>
@@ -2806,19 +2806,19 @@
         <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AO16" t="n">
         <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AR16" t="n">
         <v>20</v>
@@ -2877,10 +2877,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -2918,7 +2918,7 @@
         <v>2.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AC17" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
@@ -716,16 +716,16 @@
         <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.48</v>
+        <v>2.39</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
@@ -734,16 +734,16 @@
         <v>1.33</v>
       </c>
       <c r="U2" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Y2" t="n">
         <v>1.75</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
         <v>3.8</v>
@@ -996,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1139,16 +1139,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
@@ -1157,10 +1157,10 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1193,10 +1193,10 @@
         <v>1.13</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA5" t="n">
         <v>2.2</v>
@@ -1208,16 +1208,16 @@
         <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1241,10 +1241,10 @@
         <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>29</v>
@@ -1614,21 +1614,21 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Z8" t="n">
         <v>2.75</v>
@@ -2374,7 +2374,7 @@
         <v>9</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK13" t="n">
         <v>15</v>
@@ -2859,16 +2859,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>1.91</v>
@@ -2877,10 +2877,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -2921,13 +2921,13 @@
         <v>1.67</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
         <v>23</v>
@@ -2951,7 +2951,7 @@
         <v>67</v>
       </c>
       <c r="AM17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN17" t="n">
         <v>15</v>
@@ -2963,7 +2963,7 @@
         <v>34</v>
       </c>
       <c r="AQ17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-29.xlsx
@@ -722,10 +722,10 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="R2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
@@ -734,7 +734,7 @@
         <v>1.33</v>
       </c>
       <c r="U2" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
         <v>1.14</v>
@@ -841,16 +841,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -859,10 +859,10 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -886,7 +886,7 @@
         <v>4.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -919,7 +919,7 @@
         <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -928,7 +928,7 @@
         <v>6</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK3" t="n">
         <v>19</v>
@@ -937,7 +937,7 @@
         <v>81</v>
       </c>
       <c r="AM3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN3" t="n">
         <v>17</v>
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
@@ -1035,7 +1035,7 @@
         <v>5.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
         <v>6.5</v>
@@ -1065,7 +1065,7 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
         <v>34</v>
@@ -1080,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>101</v>
@@ -1089,16 +1089,16 @@
         <v>5.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
@@ -1154,13 +1154,13 @@
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1199,10 +1199,10 @@
         <v>2.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC5" t="n">
         <v>6.5</v>
@@ -1238,7 +1238,7 @@
         <v>6</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L6" t="n">
         <v>7.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>8.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1318,10 +1318,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="S6" t="n">
         <v>2</v>
@@ -1333,7 +1333,7 @@
         <v>2.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W6" t="n">
         <v>3.5</v>
@@ -1357,13 +1357,13 @@
         <v>5.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF6" t="n">
         <v>9</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1381,25 +1381,25 @@
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="n">
         <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>501</v>
@@ -2307,7 +2307,7 @@
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
         <v>2.88</v>
@@ -2319,26 +2319,26 @@
         <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y13" t="n">
         <v>1.44</v>
@@ -2371,7 +2371,7 @@
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>6</v>
@@ -2436,13 +2436,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J14" t="n">
         <v>4.5</v>
@@ -2451,27 +2451,27 @@
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         <v>2.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
@@ -2518,7 +2518,7 @@
         <v>7</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
         <v>51</v>
@@ -2527,13 +2527,13 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO14" t="n">
         <v>8.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
         <v>15</v>
@@ -2859,22 +2859,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
         <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.13</v>
@@ -2883,54 +2883,54 @@
         <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="S17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X17" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC17" t="n">
         <v>6</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE17" t="n">
         <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
         <v>23</v>
@@ -2945,10 +2945,10 @@
         <v>5.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="n">
         <v>8</v>
@@ -2960,13 +2960,13 @@
         <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ17" t="n">
         <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
         <v>1250</v>
